--- a/app/seeds/06_composition.xlsx
+++ b/app/seeds/06_composition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="0" windowWidth="23360" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="16980" yWindow="0" windowWidth="23360" windowHeight="13820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="合成1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -394,6 +394,17 @@
     <t>主キー</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -848,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1240,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1286,133 +1297,141 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>10001</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B14" s="3">
         <v>10002</v>
       </c>
-      <c r="B14" s="3">
-        <v>10004</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B15" s="3">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="B16" s="3">
-        <v>10009</v>
+        <v>10006</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
+        <v>10008</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
         <v>10015</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>10016</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/app/seeds/06_composition.xlsx
+++ b/app/seeds/06_composition.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="0" windowWidth="23360" windowHeight="13820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16980" yWindow="0" windowWidth="23360" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="合成1" sheetId="2" r:id="rId1"/>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1136,7 +1136,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3">
         <f>IF(B20&lt;&gt;B19, 0, F19)</f>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="F20" s="3">
         <f>E20+D20</f>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3">
         <v>20001</v>
@@ -1164,11 +1164,11 @@
         <v>41</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <f>IF(B21&lt;&gt;B20, 0, F20)</f>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3">
         <f>E21+D21</f>
@@ -1253,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
